--- a/src/static/pdSpuFlow.xlsx
+++ b/src/static/pdSpuFlow.xlsx
@@ -1,5 +1,727 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="11920"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+  <si>
+    <t>SPUID</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+  </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -254,6 +976,80 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
 </file>